--- a/WebClient/ResultFiles/IRFC_SITE_SF1044.xlsx
+++ b/WebClient/ResultFiles/IRFC_SITE_SF1044.xlsx
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
   <si>
     <t>SF1044</t>
   </si>
@@ -572,13 +572,13 @@
     </r>
   </si>
   <si>
-    <t>41.74</t>
-  </si>
-  <si>
-    <t>46.73</t>
-  </si>
-  <si>
-    <t>47.48</t>
+    <t>44.17</t>
+  </si>
+  <si>
+    <t>46.94</t>
+  </si>
+  <si>
+    <t>47.69</t>
   </si>
   <si>
     <t>TMA Type New</t>
@@ -717,7 +717,7 @@
     <t xml:space="preserve">8 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 7 9</t>
+    <t xml:space="preserve"> 9 7</t>
   </si>
   <si>
     <t>7</t>
@@ -1033,7 +1033,7 @@
     <t>DateTime</t>
   </si>
   <si>
-    <t>2021-07-01</t>
+    <t>2021-07-06</t>
   </si>
   <si>
     <t>SiteName</t>
@@ -1123,19 +1123,16 @@
     <t>RF_Engineer</t>
   </si>
   <si>
-    <t>Victor Slavchev</t>
+    <t>mementa.velinova@gmail.com</t>
   </si>
   <si>
     <t>Mobile</t>
   </si>
   <si>
-    <t>0878500407</t>
+    <t>+359878500157</t>
   </si>
   <si>
     <t>Email</t>
-  </si>
-  <si>
-    <t>victor.slavchev@vivacom.bg</t>
   </si>
   <si>
     <t>APM30</t>
@@ -3400,7 +3397,7 @@
         <v>147</v>
       </c>
       <c r="B21" s="99" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -4348,32 +4345,32 @@
     </row>
     <row r="3" ht="13.8">
       <c r="A3" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" ht="13.8">
       <c r="A4" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" ht="13.8">
       <c r="A5" s="24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" ht="13.8">
       <c r="A6" s="24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" ht="13.8">
       <c r="A7" s="24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" ht="13.8">
       <c r="A8" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -5310,19 +5307,19 @@
         <v>0</v>
       </c>
       <c r="D33" s="19">
-        <v>49.35</v>
+        <v>49.832817797888154</v>
       </c>
       <c r="E33" s="19">
-        <v>52.56</v>
+        <v>50.560917449153713</v>
       </c>
       <c r="F33" s="19">
-        <v>47.029999999999994</v>
+        <v>47.2418124604762</v>
       </c>
       <c r="G33" s="19">
-        <v>52.56</v>
+        <v>50.560917449153713</v>
       </c>
       <c r="H33" s="19">
-        <v>47.029999999999994</v>
+        <v>47.2418124604762</v>
       </c>
       <c r="I33" s="19">
         <v>0</v>
@@ -6481,19 +6478,19 @@
         <v>0</v>
       </c>
       <c r="D33" s="19">
-        <v>49.35</v>
+        <v>49.832817797888154</v>
       </c>
       <c r="E33" s="19">
-        <v>52.67</v>
+        <v>50.670917449153713</v>
       </c>
       <c r="F33" s="19">
-        <v>47.029999999999994</v>
+        <v>47.2418124604762</v>
       </c>
       <c r="G33" s="19">
-        <v>52.67</v>
+        <v>50.670917449153713</v>
       </c>
       <c r="H33" s="19">
-        <v>47.029999999999994</v>
+        <v>47.2418124604762</v>
       </c>
       <c r="I33" s="19">
         <v>0</v>
@@ -7652,19 +7649,19 @@
         <v>0</v>
       </c>
       <c r="D33" s="19">
-        <v>49.35</v>
+        <v>49.832817797888154</v>
       </c>
       <c r="E33" s="19">
-        <v>52.67</v>
+        <v>50.670917449153713</v>
       </c>
       <c r="F33" s="19">
-        <v>47.029999999999994</v>
+        <v>47.2418124604762</v>
       </c>
       <c r="G33" s="19">
-        <v>52.67</v>
+        <v>50.670917449153713</v>
       </c>
       <c r="H33" s="19">
-        <v>47.029999999999994</v>
+        <v>47.2418124604762</v>
       </c>
       <c r="I33" s="19">
         <v>0</v>

--- a/WebClient/ResultFiles/IRFC_SITE_SF1044.xlsx
+++ b/WebClient/ResultFiles/IRFC_SITE_SF1044.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12132" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12132"/>
   </bookViews>
   <sheets>
     <sheet name="Common" sheetId="13" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
     <t>SF1044</t>
   </si>
@@ -191,22 +191,22 @@
     <t>GUL</t>
   </si>
   <si>
+    <t>LNR</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
     <t>ULNR</t>
   </si>
   <si>
-    <t>L</t>
-  </si>
-  <si>
     <t>NR</t>
   </si>
   <si>
     <t>Etilt New</t>
   </si>
   <si>
-    <t xml:space="preserve">9 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8</t>
+    <t>9</t>
   </si>
   <si>
     <t>8</t>
@@ -260,7 +260,7 @@
     </r>
   </si>
   <si>
-    <t>3936 3936</t>
+    <t>3936-9 3936-9</t>
   </si>
   <si>
     <t>5513AC</t>
@@ -273,9 +273,6 @@
   </si>
   <si>
     <t>5304DB</t>
-  </si>
-  <si>
-    <t>5639 AAU</t>
   </si>
   <si>
     <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -575,19 +572,13 @@
     <t>44.17</t>
   </si>
   <si>
-    <t>46.94</t>
+    <t>45.94</t>
   </si>
   <si>
     <t>47.69</t>
   </si>
   <si>
     <t>TMA Type New</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> No</t>
   </si>
   <si>
     <t>No</t>
@@ -689,38 +680,22 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Antenna_IN_Total_Power=0. Моля проверете дали са въведени стойности за JumperType и дължина на фидера
-</t>
-  </si>
-  <si>
     <t>Sector 1</t>
   </si>
   <si>
-    <t xml:space="preserve"> 9</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>1/2 Unknown</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
-    <t>3 0</t>
-  </si>
-  <si>
     <t>Sector 2</t>
   </si>
   <si>
-    <t xml:space="preserve">8 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9 7</t>
+    <t>7 9</t>
   </si>
   <si>
     <t>7</t>
+  </si>
+  <si>
+    <t>9 7</t>
   </si>
   <si>
     <t>SiteID</t>
@@ -1033,7 +1008,7 @@
     <t>DateTime</t>
   </si>
   <si>
-    <t>2021-07-06</t>
+    <t>2021-08-12</t>
   </si>
   <si>
     <t>SiteName</t>
@@ -1096,13 +1071,7 @@
     <t>StructureHeight</t>
   </si>
   <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>InstallationType</t>
-  </si>
-  <si>
-    <t>Shelter</t>
+    <t>54.0</t>
   </si>
   <si>
     <t>BSC</t>
@@ -1123,16 +1092,19 @@
     <t>RF_Engineer</t>
   </si>
   <si>
-    <t>mementa.velinova@gmail.com</t>
+    <t>Yana Nikolova</t>
   </si>
   <si>
     <t>Mobile</t>
   </si>
   <si>
-    <t>+359878500157</t>
+    <t>+359878500319</t>
   </si>
   <si>
     <t>Email</t>
+  </si>
+  <si>
+    <t>yana.kusheva@gmail.com</t>
   </si>
   <si>
     <t>APM30</t>
@@ -1902,6 +1874,66 @@
     <xf numFmtId="16" applyNumberFormat="1" fontId="9" applyFont="1" fillId="2" applyFill="1" borderId="28" applyBorder="1" xfId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="0" applyFill="1" borderId="25" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="25" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="25" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="13" applyBorder="1" xfId="6">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="16" applyBorder="1" xfId="6">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="22" applyBorder="1" xfId="6">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="23" applyBorder="1" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="15" applyBorder="1" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="10" applyBorder="1" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="17" applyBorder="1" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="24" applyBorder="1" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="3" applyFill="1" borderId="24" applyBorder="1" xfId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="3" applyFill="1" borderId="8" applyBorder="1" xfId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="3" applyFill="1" borderId="9" applyBorder="1" xfId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="16" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="3" applyFill="1" borderId="35" applyBorder="1" xfId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1911,88 +1943,28 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="3" applyFill="1" borderId="36" applyBorder="1" xfId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="3" applyFill="1" borderId="24" applyBorder="1" xfId="6">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="2" applyFill="1" borderId="14" applyBorder="1" xfId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="3" applyFill="1" borderId="8" applyBorder="1" xfId="6">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="2" applyFill="1" borderId="23" applyBorder="1" xfId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="2" applyFill="1" borderId="15" applyBorder="1" xfId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="2" applyFill="1" borderId="33" applyBorder="1" xfId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="2" applyFill="1" borderId="34" applyBorder="1" xfId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="3" applyFill="1" borderId="10" applyBorder="1" xfId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="3" applyFill="1" borderId="17" applyBorder="1" xfId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="0" applyFill="1" borderId="25" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="25" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="25" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="13" applyBorder="1" xfId="6">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="16" applyBorder="1" xfId="6">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="22" applyBorder="1" xfId="6">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="23" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="15" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="10" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="17" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="24" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="3" applyFill="1" borderId="9" applyBorder="1" xfId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="16" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="2" applyFill="1" borderId="14" applyBorder="1" xfId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="2" applyFill="1" borderId="23" applyBorder="1" xfId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="2" applyFill="1" borderId="15" applyBorder="1" xfId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="2" applyFill="1" borderId="33" applyBorder="1" xfId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="2" applyFill="1" borderId="34" applyBorder="1" xfId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="3" applyFill="1" borderId="10" applyBorder="1" xfId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
@@ -2639,13 +2611,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2942,10 +2914,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:O21"/>
+  <dimension ref="A2:O20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2969,13 +2941,13 @@
   <sheetData>
     <row r="2" ht="21">
       <c r="A2" s="68" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B2" s="98" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="69" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E2" s="69"/>
       <c r="F2" s="69"/>
@@ -2989,92 +2961,92 @@
     </row>
     <row r="3" ht="20.4">
       <c r="A3" s="68" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B3" s="98" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D3" s="67"/>
       <c r="E3" s="70" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F3" s="71" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G3" s="72" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="H3" s="71" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="I3" s="73" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="J3" s="74"/>
       <c r="K3" s="75" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="L3" s="75"/>
       <c r="M3" s="74"/>
       <c r="N3" s="70" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="O3" s="70" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" ht="21">
       <c r="A4" s="68" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B4" s="98" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D4" s="67"/>
       <c r="E4" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" s="78" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" s="79" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="80" t="s">
+        <v>98</v>
+      </c>
+      <c r="J4" s="80" t="s">
+        <v>99</v>
+      </c>
+      <c r="K4" s="81" t="s">
+        <v>100</v>
+      </c>
+      <c r="L4" s="78" t="s">
+        <v>101</v>
+      </c>
+      <c r="M4" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="F4" s="77" t="s">
+      <c r="N4" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="G4" s="78" t="s">
+      <c r="O4" s="76" t="s">
         <v>104</v>
-      </c>
-      <c r="H4" s="79" t="s">
-        <v>105</v>
-      </c>
-      <c r="I4" s="80" t="s">
-        <v>106</v>
-      </c>
-      <c r="J4" s="80" t="s">
-        <v>107</v>
-      </c>
-      <c r="K4" s="81" t="s">
-        <v>108</v>
-      </c>
-      <c r="L4" s="78" t="s">
-        <v>109</v>
-      </c>
-      <c r="M4" s="78" t="s">
-        <v>110</v>
-      </c>
-      <c r="N4" s="76" t="s">
-        <v>111</v>
-      </c>
-      <c r="O4" s="76" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="82" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B5" s="99" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C5" s="84"/>
       <c r="D5" s="85" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E5" s="101">
         <v>1</v>
@@ -3112,14 +3084,14 @@
     </row>
     <row r="6">
       <c r="A6" s="82" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B6" s="99" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C6" s="84"/>
       <c r="D6" s="86" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E6" s="106">
         <v>1</v>
@@ -3157,10 +3129,10 @@
     </row>
     <row r="7">
       <c r="A7" s="82" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B7" s="99" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C7" s="84"/>
       <c r="D7" s="86" t="s">
@@ -3202,14 +3174,14 @@
     </row>
     <row r="8">
       <c r="A8" s="82" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B8" s="99" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C8" s="84"/>
       <c r="D8" s="86" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E8" s="87"/>
       <c r="F8" s="88"/>
@@ -3225,14 +3197,14 @@
     </row>
     <row r="9">
       <c r="A9" s="82" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B9" s="99" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C9" s="84"/>
       <c r="D9" s="86" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E9" s="87"/>
       <c r="F9" s="88"/>
@@ -3248,12 +3220,12 @@
     </row>
     <row r="10">
       <c r="A10" s="82" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B10" s="83"/>
       <c r="C10" s="84"/>
       <c r="D10" s="86" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E10" s="87"/>
       <c r="F10" s="88"/>
@@ -3269,14 +3241,14 @@
     </row>
     <row r="11">
       <c r="A11" s="82" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B11" s="99">
         <v>42.65269</v>
       </c>
       <c r="C11" s="84"/>
       <c r="D11" s="86" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E11" s="87"/>
       <c r="F11" s="88"/>
@@ -3292,14 +3264,14 @@
     </row>
     <row r="12">
       <c r="A12" s="82" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B12" s="99">
         <v>23.37193</v>
       </c>
       <c r="C12" s="84"/>
       <c r="D12" s="86" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E12" s="87"/>
       <c r="F12" s="88"/>
@@ -3315,14 +3287,14 @@
     </row>
     <row r="13" ht="13.8">
       <c r="A13" s="82" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B13" s="99" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C13" s="84"/>
       <c r="D13" s="92" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E13" s="93"/>
       <c r="F13" s="94"/>
@@ -3338,66 +3310,57 @@
     </row>
     <row r="14">
       <c r="A14" s="82" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B14" s="99" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="82" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B15" s="99" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F15" s="67"/>
     </row>
     <row r="16">
       <c r="A16" s="82" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B16" s="99" t="s">
-        <v>139</v>
-      </c>
-      <c r="F16" s="67"/>
+        <v>131</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="82" t="s">
-        <v>140</v>
-      </c>
-      <c r="B17" s="99" t="s">
-        <v>141</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="B17" s="83"/>
     </row>
     <row r="18">
       <c r="A18" s="82" t="s">
-        <v>142</v>
-      </c>
-      <c r="B18" s="83"/>
+        <v>133</v>
+      </c>
+      <c r="B18" s="99" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="82" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B19" s="99" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="82" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B20" s="99" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="82" t="s">
-        <v>147</v>
-      </c>
-      <c r="B21" s="99" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3417,7 +3380,7 @@
           <x14:formula1>
             <xm:f>DataValidation!$A$3:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>B18</xm:sqref>
+          <xm:sqref>B17</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3445,23 +3408,23 @@
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1">
-      <c r="A1" s="45"/>
-      <c r="B1" s="46"/>
-      <c r="C1" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
+      <c r="A1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
       <c r="P1" s="22"/>
       <c r="Q1" s="22"/>
       <c r="R1" s="22"/>
@@ -3472,162 +3435,162 @@
       <c r="B2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="61">
+      <c r="C2" s="59">
         <v>1</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="62">
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="60">
         <v>2</v>
       </c>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="65">
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="63">
         <v>3</v>
       </c>
-      <c r="N2" s="62"/>
-      <c r="O2" s="64"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="62"/>
       <c r="P2" s="23"/>
     </row>
     <row r="3" ht="15.6">
-      <c r="A3" s="60"/>
+      <c r="A3" s="55"/>
       <c r="B3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="38"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="58"/>
     </row>
     <row r="4" ht="15.6">
-      <c r="A4" s="60"/>
+      <c r="A4" s="55"/>
       <c r="B4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="59"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="54"/>
     </row>
     <row r="5" ht="15.6">
-      <c r="A5" s="60"/>
+      <c r="A5" s="55"/>
       <c r="B5" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="38"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="58"/>
     </row>
     <row r="6" ht="15.6">
-      <c r="A6" s="60"/>
+      <c r="A6" s="55"/>
       <c r="B6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="38"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="58"/>
     </row>
     <row r="7" ht="15.6">
-      <c r="A7" s="60"/>
+      <c r="A7" s="55"/>
       <c r="B7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="38"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="58"/>
     </row>
     <row r="8" ht="15.6">
-      <c r="A8" s="60"/>
+      <c r="A8" s="55"/>
       <c r="B8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="38"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="58"/>
     </row>
     <row r="9" ht="15.6">
-      <c r="A9" s="60"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="38"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="58"/>
     </row>
     <row r="10" ht="15">
-      <c r="A10" s="60"/>
+      <c r="A10" s="55"/>
       <c r="B10" s="15" t="s">
         <v>14</v>
       </c>
@@ -3672,7 +3635,7 @@
       </c>
     </row>
     <row r="11" ht="15.6">
-      <c r="A11" s="60"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="15" t="s">
         <v>21</v>
       </c>
@@ -3691,7 +3654,7 @@
       <c r="O11" s="18"/>
     </row>
     <row r="12" ht="15.6">
-      <c r="A12" s="60"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="11" t="s">
         <v>29</v>
       </c>
@@ -3710,7 +3673,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" ht="15.6">
-      <c r="A13" s="60"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="12" t="s">
         <v>33</v>
       </c>
@@ -3729,7 +3692,7 @@
       <c r="O13" s="31"/>
     </row>
     <row r="14" ht="15.6">
-      <c r="A14" s="60"/>
+      <c r="A14" s="55"/>
       <c r="B14" s="12" t="s">
         <v>34</v>
       </c>
@@ -3748,7 +3711,7 @@
       <c r="O14" s="31"/>
     </row>
     <row r="15" ht="15.6">
-      <c r="A15" s="60"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="12" t="s">
         <v>35</v>
       </c>
@@ -3767,9 +3730,9 @@
       <c r="O15" s="31"/>
     </row>
     <row r="16" ht="15.6">
-      <c r="A16" s="60"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
@@ -3786,7 +3749,7 @@
       <c r="O16" s="31"/>
     </row>
     <row r="17" ht="15.6">
-      <c r="A17" s="60"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="12" t="s">
         <v>45</v>
       </c>
@@ -3805,7 +3768,7 @@
       <c r="O17" s="31"/>
     </row>
     <row r="18" ht="15.6">
-      <c r="A18" s="60"/>
+      <c r="A18" s="55"/>
       <c r="B18" s="12" t="s">
         <v>46</v>
       </c>
@@ -3824,7 +3787,7 @@
       <c r="O18" s="31"/>
     </row>
     <row r="19" ht="15.6">
-      <c r="A19" s="60"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="12" t="s">
         <v>49</v>
       </c>
@@ -3843,7 +3806,7 @@
       <c r="O19" s="31"/>
     </row>
     <row r="20" ht="15.6">
-      <c r="A20" s="60"/>
+      <c r="A20" s="55"/>
       <c r="B20" s="12" t="s">
         <v>53</v>
       </c>
@@ -3862,9 +3825,9 @@
       <c r="O20" s="31"/>
     </row>
     <row r="21" ht="15.6">
-      <c r="A21" s="60"/>
+      <c r="A21" s="55"/>
       <c r="B21" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
@@ -3881,9 +3844,9 @@
       <c r="O21" s="31"/>
     </row>
     <row r="22" ht="15.6">
-      <c r="A22" s="60"/>
+      <c r="A22" s="55"/>
       <c r="B22" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
@@ -3900,9 +3863,9 @@
       <c r="O22" s="31"/>
     </row>
     <row r="23" ht="15.6">
-      <c r="A23" s="60"/>
+      <c r="A23" s="55"/>
       <c r="B23" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
@@ -3919,9 +3882,9 @@
       <c r="O23" s="31"/>
     </row>
     <row r="24" ht="15.6">
-      <c r="A24" s="60"/>
+      <c r="A24" s="55"/>
       <c r="B24" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
@@ -3938,9 +3901,9 @@
       <c r="O24" s="31"/>
     </row>
     <row r="25" ht="15.6">
-      <c r="A25" s="60"/>
+      <c r="A25" s="55"/>
       <c r="B25" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
@@ -3957,9 +3920,9 @@
       <c r="O25" s="31"/>
     </row>
     <row r="26" ht="15.6">
-      <c r="A26" s="60"/>
+      <c r="A26" s="55"/>
       <c r="B26" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
@@ -3976,9 +3939,9 @@
       <c r="O26" s="31"/>
     </row>
     <row r="27" ht="15.6">
-      <c r="A27" s="60"/>
+      <c r="A27" s="55"/>
       <c r="B27" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
@@ -3995,9 +3958,9 @@
       <c r="O27" s="31"/>
     </row>
     <row r="28" ht="15.6">
-      <c r="A28" s="60"/>
+      <c r="A28" s="55"/>
       <c r="B28" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
@@ -4014,9 +3977,9 @@
       <c r="O28" s="31"/>
     </row>
     <row r="29" ht="15.6">
-      <c r="A29" s="60"/>
+      <c r="A29" s="55"/>
       <c r="B29" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
@@ -4033,9 +3996,9 @@
       <c r="O29" s="31"/>
     </row>
     <row r="30" ht="15.6">
-      <c r="A30" s="60"/>
+      <c r="A30" s="55"/>
       <c r="B30" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
@@ -4052,9 +4015,9 @@
       <c r="O30" s="31"/>
     </row>
     <row r="31" ht="15.6">
-      <c r="A31" s="60"/>
+      <c r="A31" s="55"/>
       <c r="B31" s="12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
@@ -4071,9 +4034,9 @@
       <c r="O31" s="31"/>
     </row>
     <row r="32" ht="15.6">
-      <c r="A32" s="60"/>
+      <c r="A32" s="55"/>
       <c r="B32" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
@@ -4092,7 +4055,7 @@
     <row r="33" ht="15.6">
       <c r="A33" s="26"/>
       <c r="B33" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
@@ -4109,86 +4072,86 @@
       <c r="O33" s="32"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="B34" s="50"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="51"/>
-      <c r="L34" s="51"/>
-      <c r="M34" s="51"/>
-      <c r="N34" s="51"/>
-      <c r="O34" s="52"/>
+      <c r="A34" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="43"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="44"/>
+      <c r="O34" s="45"/>
       <c r="P34" s="22"/>
       <c r="Q34" s="22"/>
       <c r="R34" s="22"/>
       <c r="S34" s="22"/>
     </row>
     <row r="35">
-      <c r="A35" s="48"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="54"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="54"/>
-      <c r="M35" s="54"/>
-      <c r="N35" s="54"/>
-      <c r="O35" s="55"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="47"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="47"/>
+      <c r="N35" s="47"/>
+      <c r="O35" s="48"/>
       <c r="P35" s="22"/>
       <c r="Q35" s="22"/>
       <c r="R35" s="22"/>
       <c r="S35" s="22"/>
     </row>
     <row r="36">
-      <c r="A36" s="48"/>
-      <c r="B36" s="53"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="54"/>
-      <c r="M36" s="54"/>
-      <c r="N36" s="54"/>
-      <c r="O36" s="55"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="47"/>
+      <c r="O36" s="48"/>
       <c r="P36" s="22"/>
       <c r="Q36" s="22"/>
       <c r="R36" s="22"/>
       <c r="S36" s="22"/>
     </row>
     <row r="37" ht="13.8">
-      <c r="A37" s="49"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="57"/>
-      <c r="K37" s="57"/>
-      <c r="L37" s="57"/>
-      <c r="M37" s="57"/>
-      <c r="N37" s="57"/>
-      <c r="O37" s="58"/>
+      <c r="A37" s="42"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="50"/>
+      <c r="O37" s="51"/>
       <c r="P37" s="22"/>
       <c r="Q37" s="22"/>
       <c r="R37" s="22"/>
@@ -4196,6 +4159,17 @@
     </row>
   </sheetData>
   <mergeCells>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:O1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A20:A29"/>
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="A34:A37"/>
@@ -4212,17 +4186,6 @@
     <mergeCell ref="M8:O8"/>
     <mergeCell ref="C9:H9"/>
     <mergeCell ref="I9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:O1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <conditionalFormatting sqref="C15:O33">
     <cfRule type="expression" dxfId="2" priority="3">
@@ -4340,37 +4303,37 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="25" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" ht="13.8">
       <c r="A3" s="24" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" ht="13.8">
       <c r="A4" s="24" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" ht="13.8">
       <c r="A5" s="24" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" ht="13.8">
       <c r="A6" s="24" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" ht="13.8">
       <c r="A7" s="24" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" ht="13.8">
       <c r="A8" s="24" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -4386,7 +4349,7 @@
   </sheetPr>
   <dimension ref="A1:T37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
@@ -4407,7 +4370,7 @@
       </c>
       <c r="B1" s="111"/>
       <c r="C1" s="112" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D1" s="113"/>
       <c r="E1" s="113"/>
@@ -4476,7 +4439,7 @@
       <c r="B4" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="52">
         <v>55</v>
       </c>
       <c r="D4" s="127"/>
@@ -4484,7 +4447,7 @@
       <c r="F4" s="127"/>
       <c r="G4" s="127"/>
       <c r="H4" s="127"/>
-      <c r="I4" s="40">
+      <c r="I4" s="53">
         <v>55</v>
       </c>
       <c r="J4" s="127"/>
@@ -4499,25 +4462,25 @@
       <c r="B5" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="F5" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="37" t="s">
+      <c r="G5" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="37" t="s">
+      <c r="H5" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="56" t="s">
         <v>7</v>
       </c>
       <c r="J5" s="125"/>
@@ -4532,7 +4495,7 @@
       <c r="B6" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="64" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="131"/>
@@ -4540,7 +4503,7 @@
       <c r="F6" s="131"/>
       <c r="G6" s="131"/>
       <c r="H6" s="131"/>
-      <c r="I6" s="36" t="s">
+      <c r="I6" s="56" t="s">
         <v>10</v>
       </c>
       <c r="J6" s="125"/>
@@ -4555,7 +4518,7 @@
       <c r="B7" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="56">
         <v>54</v>
       </c>
       <c r="D7" s="125"/>
@@ -4563,7 +4526,7 @@
       <c r="F7" s="125"/>
       <c r="G7" s="125"/>
       <c r="H7" s="126"/>
-      <c r="I7" s="41">
+      <c r="I7" s="65">
         <v>15</v>
       </c>
       <c r="J7" s="131"/>
@@ -4578,7 +4541,7 @@
       <c r="B8" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="39">
+      <c r="C8" s="52">
         <v>0</v>
       </c>
       <c r="D8" s="127"/>
@@ -4586,7 +4549,7 @@
       <c r="F8" s="127"/>
       <c r="G8" s="127"/>
       <c r="H8" s="127"/>
-      <c r="I8" s="36">
+      <c r="I8" s="56">
         <v>0</v>
       </c>
       <c r="J8" s="125"/>
@@ -4601,7 +4564,7 @@
       <c r="B9" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="52">
         <v>0</v>
       </c>
       <c r="D9" s="127"/>
@@ -4609,7 +4572,7 @@
       <c r="F9" s="127"/>
       <c r="G9" s="127"/>
       <c r="H9" s="127"/>
-      <c r="I9" s="36">
+      <c r="I9" s="56">
         <v>5</v>
       </c>
       <c r="J9" s="125"/>
@@ -4786,13 +4749,13 @@
         <v>39</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H15" s="19" t="s">
         <v>39</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J15" s="142"/>
       <c r="K15" s="142"/>
@@ -4804,23 +4767,23 @@
     <row r="16" ht="15.6">
       <c r="A16" s="122"/>
       <c r="B16" s="123" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="I16" s="19" t="s">
         <v>28</v>
@@ -4861,13 +4824,13 @@
         <v>47</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="F18" s="19" t="s">
         <v>47</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="H18" s="19" t="s">
         <v>47</v>
@@ -4889,16 +4852,16 @@
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="19" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F19" s="19" t="s">
         <v>51</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H19" s="19" t="s">
         <v>51</v>
@@ -4947,23 +4910,23 @@
     <row r="21" ht="15.6">
       <c r="A21" s="122"/>
       <c r="B21" s="123" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19" t="s">
         <v>51</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H21" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I21" s="19" t="s">
         <v>52</v>
@@ -4978,7 +4941,7 @@
     <row r="22" ht="15.6">
       <c r="A22" s="122"/>
       <c r="B22" s="123" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" s="142"/>
       <c r="D22" s="142"/>
@@ -4997,7 +4960,7 @@
     <row r="23" ht="15.6">
       <c r="A23" s="122"/>
       <c r="B23" s="123" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" s="142"/>
       <c r="D23" s="142"/>
@@ -5016,7 +4979,7 @@
     <row r="24" ht="15.6">
       <c r="A24" s="122"/>
       <c r="B24" s="123" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24" s="19">
         <v>0</v>
@@ -5049,11 +5012,11 @@
     <row r="25" ht="15.6">
       <c r="A25" s="122"/>
       <c r="B25" s="123" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C25" s="19"/>
       <c r="D25" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E25" s="19" t="s">
         <v>52</v>
@@ -5080,7 +5043,7 @@
     <row r="26" ht="15.6">
       <c r="A26" s="122"/>
       <c r="B26" s="123" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C26" s="19">
         <v>0</v>
@@ -5089,7 +5052,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" s="19">
         <v>0</v>
@@ -5113,20 +5076,20 @@
     <row r="27" ht="15.6">
       <c r="A27" s="122"/>
       <c r="B27" s="123" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="F27" s="19" t="s">
         <v>52</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H27" s="19" t="s">
         <v>52</v>
@@ -5144,7 +5107,7 @@
     <row r="28" ht="15.6">
       <c r="A28" s="122"/>
       <c r="B28" s="123" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C28" s="19">
         <v>0</v>
@@ -5177,23 +5140,23 @@
     <row r="29" ht="15.6">
       <c r="A29" s="122"/>
       <c r="B29" s="123" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="F29" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="F29" s="19" t="s">
-        <v>73</v>
-      </c>
       <c r="G29" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="H29" s="19" t="s">
         <v>72</v>
-      </c>
-      <c r="H29" s="19" t="s">
-        <v>73</v>
       </c>
       <c r="I29" s="19" t="s">
         <v>52</v>
@@ -5208,26 +5171,26 @@
     <row r="30" ht="15.6">
       <c r="A30" s="122"/>
       <c r="B30" s="123" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C30" s="19"/>
       <c r="D30" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H30" s="19" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="I30" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J30" s="142"/>
       <c r="K30" s="142"/>
@@ -5239,26 +5202,26 @@
     <row r="31" ht="15.6">
       <c r="A31" s="122"/>
       <c r="B31" s="123" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C31" s="19"/>
       <c r="D31" s="19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H31" s="19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I31" s="19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J31" s="142"/>
       <c r="K31" s="142"/>
@@ -5270,26 +5233,26 @@
     <row r="32" ht="15.6">
       <c r="A32" s="122"/>
       <c r="B32" s="123" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C32" s="19"/>
       <c r="D32" s="19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H32" s="19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I32" s="19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J32" s="142"/>
       <c r="K32" s="142"/>
@@ -5301,28 +5264,28 @@
     <row r="33" ht="15.6">
       <c r="A33" s="146"/>
       <c r="B33" s="123" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C33" s="19">
         <v>0</v>
       </c>
       <c r="D33" s="19">
-        <v>49.832817797888154</v>
+        <v>49.833187393291318</v>
       </c>
       <c r="E33" s="19">
-        <v>50.560917449153713</v>
+        <v>45.433485773702067</v>
       </c>
       <c r="F33" s="19">
-        <v>47.2418124604762</v>
+        <v>44.231955838968851</v>
       </c>
       <c r="G33" s="19">
-        <v>50.560917449153713</v>
+        <v>48.467242206208724</v>
       </c>
       <c r="H33" s="19">
-        <v>47.2418124604762</v>
+        <v>44.231955838968851</v>
       </c>
       <c r="I33" s="19">
-        <v>0</v>
+        <v>53.000065298364092</v>
       </c>
       <c r="J33" s="142"/>
       <c r="K33" s="142"/>
@@ -5333,7 +5296,7 @@
     </row>
     <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="148" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B34" s="161"/>
       <c r="C34" s="160"/>
@@ -5341,9 +5304,7 @@
       <c r="E34" s="160"/>
       <c r="F34" s="160"/>
       <c r="G34" s="160"/>
-      <c r="H34" s="160" t="s">
-        <v>83</v>
-      </c>
+      <c r="H34" s="160"/>
       <c r="I34" s="149"/>
       <c r="J34" s="149"/>
       <c r="K34" s="149"/>
@@ -5421,6 +5382,17 @@
     </row>
   </sheetData>
   <mergeCells>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
     <mergeCell ref="C1:O1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A34:A37"/>
@@ -5437,17 +5409,6 @@
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="C7:H7"/>
     <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="M9:O9"/>
   </mergeCells>
   <conditionalFormatting sqref="C15:O33">
     <cfRule type="expression" dxfId="2" priority="3">
@@ -5578,7 +5539,7 @@
       </c>
       <c r="B1" s="111"/>
       <c r="C1" s="112" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D1" s="113"/>
       <c r="E1" s="113"/>
@@ -5647,7 +5608,7 @@
       <c r="B4" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="52">
         <v>175</v>
       </c>
       <c r="D4" s="127"/>
@@ -5655,7 +5616,7 @@
       <c r="F4" s="127"/>
       <c r="G4" s="127"/>
       <c r="H4" s="127"/>
-      <c r="I4" s="40">
+      <c r="I4" s="53">
         <v>175</v>
       </c>
       <c r="J4" s="127"/>
@@ -5670,25 +5631,25 @@
       <c r="B5" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="F5" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="37" t="s">
+      <c r="G5" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="37" t="s">
+      <c r="H5" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="56" t="s">
         <v>7</v>
       </c>
       <c r="J5" s="125"/>
@@ -5703,7 +5664,7 @@
       <c r="B6" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="64" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="131"/>
@@ -5711,7 +5672,7 @@
       <c r="F6" s="131"/>
       <c r="G6" s="131"/>
       <c r="H6" s="131"/>
-      <c r="I6" s="36" t="s">
+      <c r="I6" s="56" t="s">
         <v>10</v>
       </c>
       <c r="J6" s="125"/>
@@ -5726,7 +5687,7 @@
       <c r="B7" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="56">
         <v>51</v>
       </c>
       <c r="D7" s="125"/>
@@ -5734,7 +5695,7 @@
       <c r="F7" s="125"/>
       <c r="G7" s="125"/>
       <c r="H7" s="126"/>
-      <c r="I7" s="41">
+      <c r="I7" s="65">
         <v>51</v>
       </c>
       <c r="J7" s="131"/>
@@ -5749,7 +5710,7 @@
       <c r="B8" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="39">
+      <c r="C8" s="52">
         <v>0</v>
       </c>
       <c r="D8" s="127"/>
@@ -5757,7 +5718,7 @@
       <c r="F8" s="127"/>
       <c r="G8" s="127"/>
       <c r="H8" s="127"/>
-      <c r="I8" s="36">
+      <c r="I8" s="56">
         <v>0</v>
       </c>
       <c r="J8" s="125"/>
@@ -5772,7 +5733,7 @@
       <c r="B9" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="52">
         <v>0</v>
       </c>
       <c r="D9" s="127"/>
@@ -5780,7 +5741,7 @@
       <c r="F9" s="127"/>
       <c r="G9" s="127"/>
       <c r="H9" s="127"/>
-      <c r="I9" s="36">
+      <c r="I9" s="56">
         <v>5</v>
       </c>
       <c r="J9" s="125"/>
@@ -5957,13 +5918,13 @@
         <v>39</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H15" s="19" t="s">
         <v>39</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J15" s="142"/>
       <c r="K15" s="142"/>
@@ -5975,23 +5936,23 @@
     <row r="16" ht="15.6">
       <c r="A16" s="122"/>
       <c r="B16" s="123" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19" t="s">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="I16" s="19" t="s">
         <v>28</v>
@@ -6060,7 +6021,7 @@
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="19" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E19" s="19" t="s">
         <v>51</v>
@@ -6106,7 +6067,7 @@
         <v>58</v>
       </c>
       <c r="I20" s="19" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="J20" s="142"/>
       <c r="K20" s="142"/>
@@ -6118,26 +6079,26 @@
     <row r="21" ht="15.6">
       <c r="A21" s="122"/>
       <c r="B21" s="123" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19" t="s">
         <v>51</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H21" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I21" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J21" s="142"/>
       <c r="K21" s="142"/>
@@ -6149,7 +6110,7 @@
     <row r="22" ht="15.6">
       <c r="A22" s="122"/>
       <c r="B22" s="123" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" s="142"/>
       <c r="D22" s="142"/>
@@ -6168,7 +6129,7 @@
     <row r="23" ht="15.6">
       <c r="A23" s="122"/>
       <c r="B23" s="123" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" s="142"/>
       <c r="D23" s="142"/>
@@ -6187,7 +6148,7 @@
     <row r="24" ht="15.6">
       <c r="A24" s="122"/>
       <c r="B24" s="123" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24" s="19">
         <v>0</v>
@@ -6220,11 +6181,11 @@
     <row r="25" ht="15.6">
       <c r="A25" s="122"/>
       <c r="B25" s="123" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C25" s="19"/>
       <c r="D25" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E25" s="19" t="s">
         <v>52</v>
@@ -6251,7 +6212,7 @@
     <row r="26" ht="15.6">
       <c r="A26" s="122"/>
       <c r="B26" s="123" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C26" s="19">
         <v>0</v>
@@ -6260,7 +6221,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" s="19">
         <v>0</v>
@@ -6284,20 +6245,20 @@
     <row r="27" ht="15.6">
       <c r="A27" s="122"/>
       <c r="B27" s="123" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="F27" s="19" t="s">
         <v>52</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H27" s="19" t="s">
         <v>52</v>
@@ -6315,7 +6276,7 @@
     <row r="28" ht="15.6">
       <c r="A28" s="122"/>
       <c r="B28" s="123" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C28" s="19">
         <v>0</v>
@@ -6348,23 +6309,23 @@
     <row r="29" ht="15.6">
       <c r="A29" s="122"/>
       <c r="B29" s="123" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="F29" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="F29" s="19" t="s">
-        <v>73</v>
-      </c>
       <c r="G29" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="H29" s="19" t="s">
         <v>72</v>
-      </c>
-      <c r="H29" s="19" t="s">
-        <v>73</v>
       </c>
       <c r="I29" s="19" t="s">
         <v>52</v>
@@ -6379,26 +6340,26 @@
     <row r="30" ht="15.6">
       <c r="A30" s="122"/>
       <c r="B30" s="123" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C30" s="19"/>
       <c r="D30" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H30" s="19" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="I30" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J30" s="142"/>
       <c r="K30" s="142"/>
@@ -6410,26 +6371,26 @@
     <row r="31" ht="15.6">
       <c r="A31" s="122"/>
       <c r="B31" s="123" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C31" s="19"/>
       <c r="D31" s="19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H31" s="19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I31" s="19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J31" s="142"/>
       <c r="K31" s="142"/>
@@ -6441,26 +6402,26 @@
     <row r="32" ht="15.6">
       <c r="A32" s="122"/>
       <c r="B32" s="123" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C32" s="19"/>
       <c r="D32" s="19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H32" s="19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I32" s="19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J32" s="142"/>
       <c r="K32" s="142"/>
@@ -6472,28 +6433,28 @@
     <row r="33" ht="15.6">
       <c r="A33" s="146"/>
       <c r="B33" s="123" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C33" s="19">
         <v>0</v>
       </c>
       <c r="D33" s="19">
-        <v>49.832817797888154</v>
+        <v>49.833187393291318</v>
       </c>
       <c r="E33" s="19">
-        <v>50.670917449153713</v>
+        <v>45.538477584354993</v>
       </c>
       <c r="F33" s="19">
-        <v>47.2418124604762</v>
+        <v>44.231955838968851</v>
       </c>
       <c r="G33" s="19">
-        <v>50.670917449153713</v>
+        <v>48.574752321719771</v>
       </c>
       <c r="H33" s="19">
-        <v>47.2418124604762</v>
+        <v>44.231955838968851</v>
       </c>
       <c r="I33" s="19">
-        <v>0</v>
+        <v>53.000065298364092</v>
       </c>
       <c r="J33" s="142"/>
       <c r="K33" s="142"/>
@@ -6504,7 +6465,7 @@
     </row>
     <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="148" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B34" s="161"/>
       <c r="C34" s="160"/>
@@ -6512,9 +6473,7 @@
       <c r="E34" s="160"/>
       <c r="F34" s="160"/>
       <c r="G34" s="160"/>
-      <c r="H34" s="160" t="s">
-        <v>83</v>
-      </c>
+      <c r="H34" s="160"/>
       <c r="I34" s="149"/>
       <c r="J34" s="149"/>
       <c r="K34" s="149"/>
@@ -6592,6 +6551,17 @@
     </row>
   </sheetData>
   <mergeCells>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:O1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="M2:O2"/>
     <mergeCell ref="A20:A29"/>
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="A34:A37"/>
@@ -6608,17 +6578,6 @@
     <mergeCell ref="M7:O7"/>
     <mergeCell ref="C3:O3"/>
     <mergeCell ref="C4:O4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:O1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="M6:O6"/>
   </mergeCells>
   <conditionalFormatting sqref="C15:O33">
     <cfRule type="expression" dxfId="2" priority="3">
@@ -6818,7 +6777,7 @@
       <c r="B4" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="52">
         <v>280</v>
       </c>
       <c r="D4" s="127"/>
@@ -6826,7 +6785,7 @@
       <c r="F4" s="127"/>
       <c r="G4" s="127"/>
       <c r="H4" s="127"/>
-      <c r="I4" s="40">
+      <c r="I4" s="53">
         <v>280</v>
       </c>
       <c r="J4" s="127"/>
@@ -6841,25 +6800,25 @@
       <c r="B5" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="F5" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="37" t="s">
+      <c r="G5" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="37" t="s">
+      <c r="H5" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="56" t="s">
         <v>7</v>
       </c>
       <c r="J5" s="125"/>
@@ -6874,7 +6833,7 @@
       <c r="B6" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="64" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="131"/>
@@ -6882,7 +6841,7 @@
       <c r="F6" s="131"/>
       <c r="G6" s="131"/>
       <c r="H6" s="131"/>
-      <c r="I6" s="36" t="s">
+      <c r="I6" s="56" t="s">
         <v>10</v>
       </c>
       <c r="J6" s="125"/>
@@ -6897,7 +6856,7 @@
       <c r="B7" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="56">
         <v>51</v>
       </c>
       <c r="D7" s="125"/>
@@ -6905,7 +6864,7 @@
       <c r="F7" s="125"/>
       <c r="G7" s="125"/>
       <c r="H7" s="126"/>
-      <c r="I7" s="41">
+      <c r="I7" s="65">
         <v>51</v>
       </c>
       <c r="J7" s="131"/>
@@ -6920,7 +6879,7 @@
       <c r="B8" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="39">
+      <c r="C8" s="52">
         <v>0</v>
       </c>
       <c r="D8" s="127"/>
@@ -6928,7 +6887,7 @@
       <c r="F8" s="127"/>
       <c r="G8" s="127"/>
       <c r="H8" s="127"/>
-      <c r="I8" s="36">
+      <c r="I8" s="56">
         <v>0</v>
       </c>
       <c r="J8" s="125"/>
@@ -6943,7 +6902,7 @@
       <c r="B9" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="52">
         <v>0</v>
       </c>
       <c r="D9" s="127"/>
@@ -6951,7 +6910,7 @@
       <c r="F9" s="127"/>
       <c r="G9" s="127"/>
       <c r="H9" s="127"/>
-      <c r="I9" s="36">
+      <c r="I9" s="56">
         <v>5</v>
       </c>
       <c r="J9" s="125"/>
@@ -7128,13 +7087,13 @@
         <v>39</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H15" s="19" t="s">
         <v>39</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J15" s="142"/>
       <c r="K15" s="142"/>
@@ -7146,20 +7105,20 @@
     <row r="16" ht="15.6">
       <c r="A16" s="122"/>
       <c r="B16" s="123" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" s="19" t="s">
         <v>44</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H16" s="19" t="s">
         <v>44</v>
@@ -7277,7 +7236,7 @@
         <v>58</v>
       </c>
       <c r="I20" s="19" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="J20" s="142"/>
       <c r="K20" s="142"/>
@@ -7289,26 +7248,26 @@
     <row r="21" ht="15.6">
       <c r="A21" s="122"/>
       <c r="B21" s="123" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19" t="s">
         <v>51</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H21" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I21" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J21" s="142"/>
       <c r="K21" s="142"/>
@@ -7320,7 +7279,7 @@
     <row r="22" ht="15.6">
       <c r="A22" s="122"/>
       <c r="B22" s="123" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" s="142"/>
       <c r="D22" s="142"/>
@@ -7339,7 +7298,7 @@
     <row r="23" ht="15.6">
       <c r="A23" s="122"/>
       <c r="B23" s="123" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" s="142"/>
       <c r="D23" s="142"/>
@@ -7358,7 +7317,7 @@
     <row r="24" ht="15.6">
       <c r="A24" s="122"/>
       <c r="B24" s="123" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24" s="19">
         <v>0</v>
@@ -7391,11 +7350,11 @@
     <row r="25" ht="15.6">
       <c r="A25" s="122"/>
       <c r="B25" s="123" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C25" s="19"/>
       <c r="D25" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E25" s="19" t="s">
         <v>52</v>
@@ -7422,7 +7381,7 @@
     <row r="26" ht="15.6">
       <c r="A26" s="122"/>
       <c r="B26" s="123" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C26" s="19">
         <v>0</v>
@@ -7431,7 +7390,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" s="19">
         <v>0</v>
@@ -7455,20 +7414,20 @@
     <row r="27" ht="15.6">
       <c r="A27" s="122"/>
       <c r="B27" s="123" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="F27" s="19" t="s">
         <v>52</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H27" s="19" t="s">
         <v>52</v>
@@ -7486,7 +7445,7 @@
     <row r="28" ht="15.6">
       <c r="A28" s="122"/>
       <c r="B28" s="123" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C28" s="19">
         <v>0</v>
@@ -7519,23 +7478,23 @@
     <row r="29" ht="15.6">
       <c r="A29" s="122"/>
       <c r="B29" s="123" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="F29" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="F29" s="19" t="s">
-        <v>73</v>
-      </c>
       <c r="G29" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="H29" s="19" t="s">
         <v>72</v>
-      </c>
-      <c r="H29" s="19" t="s">
-        <v>73</v>
       </c>
       <c r="I29" s="19" t="s">
         <v>52</v>
@@ -7550,26 +7509,26 @@
     <row r="30" ht="15.6">
       <c r="A30" s="122"/>
       <c r="B30" s="123" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C30" s="19"/>
       <c r="D30" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H30" s="19" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="I30" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J30" s="142"/>
       <c r="K30" s="142"/>
@@ -7581,26 +7540,26 @@
     <row r="31" ht="15.6">
       <c r="A31" s="122"/>
       <c r="B31" s="123" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C31" s="19"/>
       <c r="D31" s="19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H31" s="19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I31" s="19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J31" s="142"/>
       <c r="K31" s="142"/>
@@ -7612,26 +7571,26 @@
     <row r="32" ht="15.6">
       <c r="A32" s="122"/>
       <c r="B32" s="123" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C32" s="19"/>
       <c r="D32" s="19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H32" s="19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I32" s="19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J32" s="142"/>
       <c r="K32" s="142"/>
@@ -7643,28 +7602,28 @@
     <row r="33" ht="15.6">
       <c r="A33" s="146"/>
       <c r="B33" s="123" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C33" s="19">
         <v>0</v>
       </c>
       <c r="D33" s="19">
-        <v>49.832817797888154</v>
+        <v>49.833187393291318</v>
       </c>
       <c r="E33" s="19">
-        <v>50.670917449153713</v>
+        <v>45.538477584354993</v>
       </c>
       <c r="F33" s="19">
-        <v>47.2418124604762</v>
+        <v>44.231955838968851</v>
       </c>
       <c r="G33" s="19">
-        <v>50.670917449153713</v>
+        <v>48.574752321719771</v>
       </c>
       <c r="H33" s="19">
-        <v>47.2418124604762</v>
+        <v>44.231955838968851</v>
       </c>
       <c r="I33" s="19">
-        <v>0</v>
+        <v>53.000065298364092</v>
       </c>
       <c r="J33" s="142"/>
       <c r="K33" s="142"/>
@@ -7675,7 +7634,7 @@
     </row>
     <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="148" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B34" s="161"/>
       <c r="C34" s="160"/>
@@ -7683,9 +7642,7 @@
       <c r="E34" s="160"/>
       <c r="F34" s="160"/>
       <c r="G34" s="160"/>
-      <c r="H34" s="160" t="s">
-        <v>83</v>
-      </c>
+      <c r="H34" s="160"/>
       <c r="I34" s="149"/>
       <c r="J34" s="149"/>
       <c r="K34" s="149"/>
@@ -7763,6 +7720,17 @@
     </row>
   </sheetData>
   <mergeCells>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:O1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="M2:O2"/>
     <mergeCell ref="A20:A29"/>
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="A34:A37"/>
@@ -7779,17 +7747,6 @@
     <mergeCell ref="M7:O7"/>
     <mergeCell ref="C3:O3"/>
     <mergeCell ref="C4:O4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:O1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="M6:O6"/>
   </mergeCells>
   <conditionalFormatting sqref="C15:O33">
     <cfRule type="expression" dxfId="2" priority="3">
@@ -7912,23 +7869,23 @@
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1">
-      <c r="A1" s="45"/>
-      <c r="B1" s="46"/>
-      <c r="C1" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
+      <c r="A1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
       <c r="P1" s="22"/>
       <c r="Q1" s="22"/>
       <c r="R1" s="22"/>
@@ -7939,162 +7896,162 @@
       <c r="B2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="61">
+      <c r="C2" s="59">
         <v>1</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="62">
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="60">
         <v>2</v>
       </c>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="65">
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="63">
         <v>3</v>
       </c>
-      <c r="N2" s="62"/>
-      <c r="O2" s="64"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="62"/>
       <c r="P2" s="23"/>
     </row>
     <row r="3" ht="15.6">
-      <c r="A3" s="60"/>
+      <c r="A3" s="55"/>
       <c r="B3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="38"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="58"/>
     </row>
     <row r="4" ht="15.6">
-      <c r="A4" s="60"/>
+      <c r="A4" s="55"/>
       <c r="B4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="59"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="54"/>
     </row>
     <row r="5" ht="15.6">
-      <c r="A5" s="60"/>
+      <c r="A5" s="55"/>
       <c r="B5" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="38"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="58"/>
     </row>
     <row r="6" ht="15.6">
-      <c r="A6" s="60"/>
+      <c r="A6" s="55"/>
       <c r="B6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="38"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="58"/>
     </row>
     <row r="7" ht="15.6">
-      <c r="A7" s="60"/>
+      <c r="A7" s="55"/>
       <c r="B7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="38"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="58"/>
     </row>
     <row r="8" ht="15.6">
-      <c r="A8" s="60"/>
+      <c r="A8" s="55"/>
       <c r="B8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="38"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="58"/>
     </row>
     <row r="9" ht="15.6">
-      <c r="A9" s="60"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="38"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="58"/>
     </row>
     <row r="10" ht="15">
-      <c r="A10" s="60"/>
+      <c r="A10" s="55"/>
       <c r="B10" s="15" t="s">
         <v>14</v>
       </c>
@@ -8139,7 +8096,7 @@
       </c>
     </row>
     <row r="11" ht="15.6">
-      <c r="A11" s="60"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="15" t="s">
         <v>21</v>
       </c>
@@ -8158,7 +8115,7 @@
       <c r="O11" s="18"/>
     </row>
     <row r="12" ht="15.6">
-      <c r="A12" s="60"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="11" t="s">
         <v>29</v>
       </c>
@@ -8177,7 +8134,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" ht="15.6">
-      <c r="A13" s="60"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="12" t="s">
         <v>33</v>
       </c>
@@ -8196,7 +8153,7 @@
       <c r="O13" s="31"/>
     </row>
     <row r="14" ht="15.6">
-      <c r="A14" s="60"/>
+      <c r="A14" s="55"/>
       <c r="B14" s="12" t="s">
         <v>34</v>
       </c>
@@ -8215,7 +8172,7 @@
       <c r="O14" s="31"/>
     </row>
     <row r="15" ht="15.6">
-      <c r="A15" s="60"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="12" t="s">
         <v>35</v>
       </c>
@@ -8234,9 +8191,9 @@
       <c r="O15" s="31"/>
     </row>
     <row r="16" ht="15.6">
-      <c r="A16" s="60"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
@@ -8253,7 +8210,7 @@
       <c r="O16" s="31"/>
     </row>
     <row r="17" ht="15.6">
-      <c r="A17" s="60"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="12" t="s">
         <v>45</v>
       </c>
@@ -8272,7 +8229,7 @@
       <c r="O17" s="31"/>
     </row>
     <row r="18" ht="15.6">
-      <c r="A18" s="60"/>
+      <c r="A18" s="55"/>
       <c r="B18" s="12" t="s">
         <v>46</v>
       </c>
@@ -8291,7 +8248,7 @@
       <c r="O18" s="31"/>
     </row>
     <row r="19" ht="15.6">
-      <c r="A19" s="60"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="12" t="s">
         <v>49</v>
       </c>
@@ -8310,7 +8267,7 @@
       <c r="O19" s="31"/>
     </row>
     <row r="20" ht="15.6">
-      <c r="A20" s="60"/>
+      <c r="A20" s="55"/>
       <c r="B20" s="12" t="s">
         <v>53</v>
       </c>
@@ -8329,9 +8286,9 @@
       <c r="O20" s="31"/>
     </row>
     <row r="21" ht="15.6">
-      <c r="A21" s="60"/>
+      <c r="A21" s="55"/>
       <c r="B21" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
@@ -8348,9 +8305,9 @@
       <c r="O21" s="31"/>
     </row>
     <row r="22" ht="15.6">
-      <c r="A22" s="60"/>
+      <c r="A22" s="55"/>
       <c r="B22" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
@@ -8367,9 +8324,9 @@
       <c r="O22" s="31"/>
     </row>
     <row r="23" ht="15.6">
-      <c r="A23" s="60"/>
+      <c r="A23" s="55"/>
       <c r="B23" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
@@ -8386,9 +8343,9 @@
       <c r="O23" s="31"/>
     </row>
     <row r="24" ht="15.6">
-      <c r="A24" s="60"/>
+      <c r="A24" s="55"/>
       <c r="B24" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
@@ -8405,9 +8362,9 @@
       <c r="O24" s="31"/>
     </row>
     <row r="25" ht="15.6">
-      <c r="A25" s="60"/>
+      <c r="A25" s="55"/>
       <c r="B25" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
@@ -8424,9 +8381,9 @@
       <c r="O25" s="31"/>
     </row>
     <row r="26" ht="15.6">
-      <c r="A26" s="60"/>
+      <c r="A26" s="55"/>
       <c r="B26" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
@@ -8443,9 +8400,9 @@
       <c r="O26" s="31"/>
     </row>
     <row r="27" ht="15.6">
-      <c r="A27" s="60"/>
+      <c r="A27" s="55"/>
       <c r="B27" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
@@ -8462,9 +8419,9 @@
       <c r="O27" s="31"/>
     </row>
     <row r="28" ht="15.6">
-      <c r="A28" s="60"/>
+      <c r="A28" s="55"/>
       <c r="B28" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
@@ -8481,9 +8438,9 @@
       <c r="O28" s="31"/>
     </row>
     <row r="29" ht="15.6">
-      <c r="A29" s="60"/>
+      <c r="A29" s="55"/>
       <c r="B29" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
@@ -8500,9 +8457,9 @@
       <c r="O29" s="31"/>
     </row>
     <row r="30" ht="15.6">
-      <c r="A30" s="60"/>
+      <c r="A30" s="55"/>
       <c r="B30" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
@@ -8519,9 +8476,9 @@
       <c r="O30" s="31"/>
     </row>
     <row r="31" ht="15.6">
-      <c r="A31" s="60"/>
+      <c r="A31" s="55"/>
       <c r="B31" s="12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
@@ -8538,9 +8495,9 @@
       <c r="O31" s="31"/>
     </row>
     <row r="32" ht="15.6">
-      <c r="A32" s="60"/>
+      <c r="A32" s="55"/>
       <c r="B32" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
@@ -8559,7 +8516,7 @@
     <row r="33" ht="15.6">
       <c r="A33" s="26"/>
       <c r="B33" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
@@ -8576,86 +8533,86 @@
       <c r="O33" s="32"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="B34" s="50"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="51"/>
-      <c r="L34" s="51"/>
-      <c r="M34" s="51"/>
-      <c r="N34" s="51"/>
-      <c r="O34" s="52"/>
+      <c r="A34" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="43"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="44"/>
+      <c r="O34" s="45"/>
       <c r="P34" s="22"/>
       <c r="Q34" s="22"/>
       <c r="R34" s="22"/>
       <c r="S34" s="22"/>
     </row>
     <row r="35">
-      <c r="A35" s="48"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="54"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="54"/>
-      <c r="M35" s="54"/>
-      <c r="N35" s="54"/>
-      <c r="O35" s="55"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="47"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="47"/>
+      <c r="N35" s="47"/>
+      <c r="O35" s="48"/>
       <c r="P35" s="22"/>
       <c r="Q35" s="22"/>
       <c r="R35" s="22"/>
       <c r="S35" s="22"/>
     </row>
     <row r="36">
-      <c r="A36" s="48"/>
-      <c r="B36" s="53"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="54"/>
-      <c r="M36" s="54"/>
-      <c r="N36" s="54"/>
-      <c r="O36" s="55"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="47"/>
+      <c r="O36" s="48"/>
       <c r="P36" s="22"/>
       <c r="Q36" s="22"/>
       <c r="R36" s="22"/>
       <c r="S36" s="22"/>
     </row>
     <row r="37" ht="13.8">
-      <c r="A37" s="49"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="57"/>
-      <c r="K37" s="57"/>
-      <c r="L37" s="57"/>
-      <c r="M37" s="57"/>
-      <c r="N37" s="57"/>
-      <c r="O37" s="58"/>
+      <c r="A37" s="42"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="50"/>
+      <c r="O37" s="51"/>
       <c r="P37" s="22"/>
       <c r="Q37" s="22"/>
       <c r="R37" s="22"/>
@@ -8663,6 +8620,17 @@
     </row>
   </sheetData>
   <mergeCells>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:O1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="M2:O2"/>
     <mergeCell ref="A20:A29"/>
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="A34:A37"/>
@@ -8679,17 +8647,6 @@
     <mergeCell ref="M7:O7"/>
     <mergeCell ref="C3:O3"/>
     <mergeCell ref="C4:O4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:O1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="M6:O6"/>
   </mergeCells>
   <conditionalFormatting sqref="C15:O33">
     <cfRule type="expression" dxfId="2" priority="3">
@@ -8812,23 +8769,23 @@
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1">
-      <c r="A1" s="45"/>
-      <c r="B1" s="46"/>
-      <c r="C1" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
+      <c r="A1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
       <c r="P1" s="22"/>
       <c r="Q1" s="22"/>
       <c r="R1" s="22"/>
@@ -8839,162 +8796,162 @@
       <c r="B2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="61">
+      <c r="C2" s="59">
         <v>1</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="62">
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="60">
         <v>2</v>
       </c>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="65">
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="63">
         <v>3</v>
       </c>
-      <c r="N2" s="62"/>
-      <c r="O2" s="64"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="62"/>
       <c r="P2" s="23"/>
     </row>
     <row r="3" ht="15.6">
-      <c r="A3" s="60"/>
+      <c r="A3" s="55"/>
       <c r="B3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="38"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="58"/>
     </row>
     <row r="4" ht="15.6">
-      <c r="A4" s="60"/>
+      <c r="A4" s="55"/>
       <c r="B4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="59"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="54"/>
     </row>
     <row r="5" ht="15.6">
-      <c r="A5" s="60"/>
+      <c r="A5" s="55"/>
       <c r="B5" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="38"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="58"/>
     </row>
     <row r="6" ht="15.6">
-      <c r="A6" s="60"/>
+      <c r="A6" s="55"/>
       <c r="B6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="38"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="58"/>
     </row>
     <row r="7" ht="15.6">
-      <c r="A7" s="60"/>
+      <c r="A7" s="55"/>
       <c r="B7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="38"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="58"/>
     </row>
     <row r="8" ht="15.6">
-      <c r="A8" s="60"/>
+      <c r="A8" s="55"/>
       <c r="B8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="38"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="58"/>
     </row>
     <row r="9" ht="15.6">
-      <c r="A9" s="60"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="38"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="58"/>
     </row>
     <row r="10" ht="15">
-      <c r="A10" s="60"/>
+      <c r="A10" s="55"/>
       <c r="B10" s="15" t="s">
         <v>14</v>
       </c>
@@ -9039,7 +8996,7 @@
       </c>
     </row>
     <row r="11" ht="15.6">
-      <c r="A11" s="60"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="15" t="s">
         <v>21</v>
       </c>
@@ -9058,7 +9015,7 @@
       <c r="O11" s="18"/>
     </row>
     <row r="12" ht="15.6">
-      <c r="A12" s="60"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="11" t="s">
         <v>29</v>
       </c>
@@ -9077,7 +9034,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" ht="15.6">
-      <c r="A13" s="60"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="12" t="s">
         <v>33</v>
       </c>
@@ -9096,7 +9053,7 @@
       <c r="O13" s="31"/>
     </row>
     <row r="14" ht="15.6">
-      <c r="A14" s="60"/>
+      <c r="A14" s="55"/>
       <c r="B14" s="12" t="s">
         <v>34</v>
       </c>
@@ -9115,7 +9072,7 @@
       <c r="O14" s="31"/>
     </row>
     <row r="15" ht="15.6">
-      <c r="A15" s="60"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="12" t="s">
         <v>35</v>
       </c>
@@ -9134,9 +9091,9 @@
       <c r="O15" s="31"/>
     </row>
     <row r="16" ht="15.6">
-      <c r="A16" s="60"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
@@ -9153,7 +9110,7 @@
       <c r="O16" s="31"/>
     </row>
     <row r="17" ht="15.6">
-      <c r="A17" s="60"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="12" t="s">
         <v>45</v>
       </c>
@@ -9172,7 +9129,7 @@
       <c r="O17" s="31"/>
     </row>
     <row r="18" ht="15.6">
-      <c r="A18" s="60"/>
+      <c r="A18" s="55"/>
       <c r="B18" s="12" t="s">
         <v>46</v>
       </c>
@@ -9191,7 +9148,7 @@
       <c r="O18" s="31"/>
     </row>
     <row r="19" ht="15.6">
-      <c r="A19" s="60"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="12" t="s">
         <v>49</v>
       </c>
@@ -9210,7 +9167,7 @@
       <c r="O19" s="31"/>
     </row>
     <row r="20" ht="15.6">
-      <c r="A20" s="60"/>
+      <c r="A20" s="55"/>
       <c r="B20" s="12" t="s">
         <v>53</v>
       </c>
@@ -9229,9 +9186,9 @@
       <c r="O20" s="31"/>
     </row>
     <row r="21" ht="15.6">
-      <c r="A21" s="60"/>
+      <c r="A21" s="55"/>
       <c r="B21" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
@@ -9248,9 +9205,9 @@
       <c r="O21" s="31"/>
     </row>
     <row r="22" ht="15.6">
-      <c r="A22" s="60"/>
+      <c r="A22" s="55"/>
       <c r="B22" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
@@ -9267,9 +9224,9 @@
       <c r="O22" s="31"/>
     </row>
     <row r="23" ht="15.6">
-      <c r="A23" s="60"/>
+      <c r="A23" s="55"/>
       <c r="B23" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
@@ -9286,9 +9243,9 @@
       <c r="O23" s="31"/>
     </row>
     <row r="24" ht="15.6">
-      <c r="A24" s="60"/>
+      <c r="A24" s="55"/>
       <c r="B24" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
@@ -9305,9 +9262,9 @@
       <c r="O24" s="31"/>
     </row>
     <row r="25" ht="15.6">
-      <c r="A25" s="60"/>
+      <c r="A25" s="55"/>
       <c r="B25" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
@@ -9324,9 +9281,9 @@
       <c r="O25" s="31"/>
     </row>
     <row r="26" ht="15.6">
-      <c r="A26" s="60"/>
+      <c r="A26" s="55"/>
       <c r="B26" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
@@ -9343,9 +9300,9 @@
       <c r="O26" s="31"/>
     </row>
     <row r="27" ht="15.6">
-      <c r="A27" s="60"/>
+      <c r="A27" s="55"/>
       <c r="B27" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
@@ -9362,9 +9319,9 @@
       <c r="O27" s="31"/>
     </row>
     <row r="28" ht="15.6">
-      <c r="A28" s="60"/>
+      <c r="A28" s="55"/>
       <c r="B28" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
@@ -9381,9 +9338,9 @@
       <c r="O28" s="31"/>
     </row>
     <row r="29" ht="15.6">
-      <c r="A29" s="60"/>
+      <c r="A29" s="55"/>
       <c r="B29" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
@@ -9400,9 +9357,9 @@
       <c r="O29" s="31"/>
     </row>
     <row r="30" ht="15.6">
-      <c r="A30" s="60"/>
+      <c r="A30" s="55"/>
       <c r="B30" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
@@ -9419,9 +9376,9 @@
       <c r="O30" s="31"/>
     </row>
     <row r="31" ht="15.6">
-      <c r="A31" s="60"/>
+      <c r="A31" s="55"/>
       <c r="B31" s="12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
@@ -9438,9 +9395,9 @@
       <c r="O31" s="31"/>
     </row>
     <row r="32" ht="15.6">
-      <c r="A32" s="60"/>
+      <c r="A32" s="55"/>
       <c r="B32" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
@@ -9459,7 +9416,7 @@
     <row r="33" ht="15.6">
       <c r="A33" s="26"/>
       <c r="B33" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
@@ -9476,86 +9433,86 @@
       <c r="O33" s="32"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="B34" s="50"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="51"/>
-      <c r="L34" s="51"/>
-      <c r="M34" s="51"/>
-      <c r="N34" s="51"/>
-      <c r="O34" s="52"/>
+      <c r="A34" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="43"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="44"/>
+      <c r="O34" s="45"/>
       <c r="P34" s="22"/>
       <c r="Q34" s="22"/>
       <c r="R34" s="22"/>
       <c r="S34" s="22"/>
     </row>
     <row r="35">
-      <c r="A35" s="48"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="54"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="54"/>
-      <c r="M35" s="54"/>
-      <c r="N35" s="54"/>
-      <c r="O35" s="55"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="47"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="47"/>
+      <c r="N35" s="47"/>
+      <c r="O35" s="48"/>
       <c r="P35" s="22"/>
       <c r="Q35" s="22"/>
       <c r="R35" s="22"/>
       <c r="S35" s="22"/>
     </row>
     <row r="36">
-      <c r="A36" s="48"/>
-      <c r="B36" s="53"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="54"/>
-      <c r="M36" s="54"/>
-      <c r="N36" s="54"/>
-      <c r="O36" s="55"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="47"/>
+      <c r="O36" s="48"/>
       <c r="P36" s="22"/>
       <c r="Q36" s="22"/>
       <c r="R36" s="22"/>
       <c r="S36" s="22"/>
     </row>
     <row r="37" ht="13.8">
-      <c r="A37" s="49"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="57"/>
-      <c r="K37" s="57"/>
-      <c r="L37" s="57"/>
-      <c r="M37" s="57"/>
-      <c r="N37" s="57"/>
-      <c r="O37" s="58"/>
+      <c r="A37" s="42"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="50"/>
+      <c r="O37" s="51"/>
       <c r="P37" s="22"/>
       <c r="Q37" s="22"/>
       <c r="R37" s="22"/>
@@ -9563,6 +9520,17 @@
     </row>
   </sheetData>
   <mergeCells>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:O1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A20:A29"/>
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="A34:A37"/>
@@ -9579,17 +9547,6 @@
     <mergeCell ref="M8:O8"/>
     <mergeCell ref="C9:H9"/>
     <mergeCell ref="I9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:O1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <conditionalFormatting sqref="C15:O33">
     <cfRule type="expression" dxfId="2" priority="3">
@@ -9712,23 +9669,23 @@
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1">
-      <c r="A1" s="45"/>
-      <c r="B1" s="46"/>
-      <c r="C1" s="43" t="s">
-        <v>126</v>
-      </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
+      <c r="A1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
       <c r="P1" s="22"/>
       <c r="Q1" s="22"/>
       <c r="R1" s="22"/>
@@ -9739,162 +9696,162 @@
       <c r="B2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="61">
+      <c r="C2" s="59">
         <v>1</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="62">
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="60">
         <v>2</v>
       </c>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="65">
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="63">
         <v>3</v>
       </c>
-      <c r="N2" s="62"/>
-      <c r="O2" s="64"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="62"/>
       <c r="P2" s="23"/>
     </row>
     <row r="3" ht="15.6">
-      <c r="A3" s="60"/>
+      <c r="A3" s="55"/>
       <c r="B3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="38"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="58"/>
     </row>
     <row r="4" ht="15.6">
-      <c r="A4" s="60"/>
+      <c r="A4" s="55"/>
       <c r="B4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="59"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="54"/>
     </row>
     <row r="5" ht="15.6">
-      <c r="A5" s="60"/>
+      <c r="A5" s="55"/>
       <c r="B5" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="38"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="58"/>
     </row>
     <row r="6" ht="15.6">
-      <c r="A6" s="60"/>
+      <c r="A6" s="55"/>
       <c r="B6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="38"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="58"/>
     </row>
     <row r="7" ht="15.6">
-      <c r="A7" s="60"/>
+      <c r="A7" s="55"/>
       <c r="B7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="38"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="58"/>
     </row>
     <row r="8" ht="15.6">
-      <c r="A8" s="60"/>
+      <c r="A8" s="55"/>
       <c r="B8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="38"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="58"/>
     </row>
     <row r="9" ht="15.6">
-      <c r="A9" s="60"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="38"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="58"/>
     </row>
     <row r="10" ht="15">
-      <c r="A10" s="60"/>
+      <c r="A10" s="55"/>
       <c r="B10" s="15" t="s">
         <v>14</v>
       </c>
@@ -9939,7 +9896,7 @@
       </c>
     </row>
     <row r="11" ht="15.6">
-      <c r="A11" s="60"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="15" t="s">
         <v>21</v>
       </c>
@@ -9958,7 +9915,7 @@
       <c r="O11" s="18"/>
     </row>
     <row r="12" ht="15.6">
-      <c r="A12" s="60"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="11" t="s">
         <v>29</v>
       </c>
@@ -9977,7 +9934,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" ht="15.6">
-      <c r="A13" s="60"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="12" t="s">
         <v>33</v>
       </c>
@@ -9996,7 +9953,7 @@
       <c r="O13" s="31"/>
     </row>
     <row r="14" ht="15.6">
-      <c r="A14" s="60"/>
+      <c r="A14" s="55"/>
       <c r="B14" s="12" t="s">
         <v>34</v>
       </c>
@@ -10015,7 +9972,7 @@
       <c r="O14" s="31"/>
     </row>
     <row r="15" ht="15.6">
-      <c r="A15" s="60"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="12" t="s">
         <v>35</v>
       </c>
@@ -10034,9 +9991,9 @@
       <c r="O15" s="31"/>
     </row>
     <row r="16" ht="15.6">
-      <c r="A16" s="60"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
@@ -10053,7 +10010,7 @@
       <c r="O16" s="31"/>
     </row>
     <row r="17" ht="15.6">
-      <c r="A17" s="60"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="12" t="s">
         <v>45</v>
       </c>
@@ -10072,7 +10029,7 @@
       <c r="O17" s="31"/>
     </row>
     <row r="18" ht="15.6">
-      <c r="A18" s="60"/>
+      <c r="A18" s="55"/>
       <c r="B18" s="12" t="s">
         <v>46</v>
       </c>
@@ -10091,7 +10048,7 @@
       <c r="O18" s="31"/>
     </row>
     <row r="19" ht="15.6">
-      <c r="A19" s="60"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="12" t="s">
         <v>49</v>
       </c>
@@ -10110,7 +10067,7 @@
       <c r="O19" s="31"/>
     </row>
     <row r="20" ht="15.6">
-      <c r="A20" s="60"/>
+      <c r="A20" s="55"/>
       <c r="B20" s="12" t="s">
         <v>53</v>
       </c>
@@ -10129,9 +10086,9 @@
       <c r="O20" s="31"/>
     </row>
     <row r="21" ht="15.6">
-      <c r="A21" s="60"/>
+      <c r="A21" s="55"/>
       <c r="B21" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
@@ -10148,9 +10105,9 @@
       <c r="O21" s="31"/>
     </row>
     <row r="22" ht="15.6">
-      <c r="A22" s="60"/>
+      <c r="A22" s="55"/>
       <c r="B22" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
@@ -10167,9 +10124,9 @@
       <c r="O22" s="31"/>
     </row>
     <row r="23" ht="15.6">
-      <c r="A23" s="60"/>
+      <c r="A23" s="55"/>
       <c r="B23" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
@@ -10186,9 +10143,9 @@
       <c r="O23" s="31"/>
     </row>
     <row r="24" ht="15.6">
-      <c r="A24" s="60"/>
+      <c r="A24" s="55"/>
       <c r="B24" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
@@ -10205,9 +10162,9 @@
       <c r="O24" s="31"/>
     </row>
     <row r="25" ht="15.6">
-      <c r="A25" s="60"/>
+      <c r="A25" s="55"/>
       <c r="B25" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
@@ -10224,9 +10181,9 @@
       <c r="O25" s="31"/>
     </row>
     <row r="26" ht="15.6">
-      <c r="A26" s="60"/>
+      <c r="A26" s="55"/>
       <c r="B26" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
@@ -10243,9 +10200,9 @@
       <c r="O26" s="31"/>
     </row>
     <row r="27" ht="15.6">
-      <c r="A27" s="60"/>
+      <c r="A27" s="55"/>
       <c r="B27" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
@@ -10262,9 +10219,9 @@
       <c r="O27" s="31"/>
     </row>
     <row r="28" ht="15.6">
-      <c r="A28" s="60"/>
+      <c r="A28" s="55"/>
       <c r="B28" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
@@ -10281,9 +10238,9 @@
       <c r="O28" s="31"/>
     </row>
     <row r="29" ht="15.6">
-      <c r="A29" s="60"/>
+      <c r="A29" s="55"/>
       <c r="B29" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
@@ -10300,9 +10257,9 @@
       <c r="O29" s="31"/>
     </row>
     <row r="30" ht="15.6">
-      <c r="A30" s="60"/>
+      <c r="A30" s="55"/>
       <c r="B30" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
@@ -10319,9 +10276,9 @@
       <c r="O30" s="31"/>
     </row>
     <row r="31" ht="15.6">
-      <c r="A31" s="60"/>
+      <c r="A31" s="55"/>
       <c r="B31" s="12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
@@ -10338,9 +10295,9 @@
       <c r="O31" s="31"/>
     </row>
     <row r="32" ht="15.6">
-      <c r="A32" s="60"/>
+      <c r="A32" s="55"/>
       <c r="B32" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
@@ -10359,7 +10316,7 @@
     <row r="33" ht="15.6">
       <c r="A33" s="26"/>
       <c r="B33" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
@@ -10376,86 +10333,86 @@
       <c r="O33" s="32"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="B34" s="50"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="51"/>
-      <c r="L34" s="51"/>
-      <c r="M34" s="51"/>
-      <c r="N34" s="51"/>
-      <c r="O34" s="52"/>
+      <c r="A34" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="43"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="44"/>
+      <c r="O34" s="45"/>
       <c r="P34" s="22"/>
       <c r="Q34" s="22"/>
       <c r="R34" s="22"/>
       <c r="S34" s="22"/>
     </row>
     <row r="35">
-      <c r="A35" s="48"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="54"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="54"/>
-      <c r="M35" s="54"/>
-      <c r="N35" s="54"/>
-      <c r="O35" s="55"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="47"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="47"/>
+      <c r="N35" s="47"/>
+      <c r="O35" s="48"/>
       <c r="P35" s="22"/>
       <c r="Q35" s="22"/>
       <c r="R35" s="22"/>
       <c r="S35" s="22"/>
     </row>
     <row r="36">
-      <c r="A36" s="48"/>
-      <c r="B36" s="53"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="54"/>
-      <c r="M36" s="54"/>
-      <c r="N36" s="54"/>
-      <c r="O36" s="55"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="47"/>
+      <c r="O36" s="48"/>
       <c r="P36" s="22"/>
       <c r="Q36" s="22"/>
       <c r="R36" s="22"/>
       <c r="S36" s="22"/>
     </row>
     <row r="37" ht="13.8">
-      <c r="A37" s="49"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="57"/>
-      <c r="K37" s="57"/>
-      <c r="L37" s="57"/>
-      <c r="M37" s="57"/>
-      <c r="N37" s="57"/>
-      <c r="O37" s="58"/>
+      <c r="A37" s="42"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="50"/>
+      <c r="O37" s="51"/>
       <c r="P37" s="22"/>
       <c r="Q37" s="22"/>
       <c r="R37" s="22"/>
@@ -10463,6 +10420,17 @@
     </row>
   </sheetData>
   <mergeCells>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:O1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A20:A29"/>
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="A34:A37"/>
@@ -10479,17 +10447,6 @@
     <mergeCell ref="M8:O8"/>
     <mergeCell ref="C9:H9"/>
     <mergeCell ref="I9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:O1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <conditionalFormatting sqref="C15:O33">
     <cfRule type="expression" dxfId="2" priority="3">
@@ -10612,23 +10569,23 @@
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1">
-      <c r="A1" s="45"/>
-      <c r="B1" s="46"/>
-      <c r="C1" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
+      <c r="A1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
       <c r="P1" s="22"/>
       <c r="Q1" s="22"/>
       <c r="R1" s="22"/>
@@ -10639,162 +10596,162 @@
       <c r="B2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="61">
+      <c r="C2" s="59">
         <v>1</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="62">
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="60">
         <v>2</v>
       </c>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="65">
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="63">
         <v>3</v>
       </c>
-      <c r="N2" s="62"/>
-      <c r="O2" s="64"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="62"/>
       <c r="P2" s="23"/>
     </row>
     <row r="3" ht="15.6">
-      <c r="A3" s="60"/>
+      <c r="A3" s="55"/>
       <c r="B3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="38"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="58"/>
     </row>
     <row r="4" ht="15.6">
-      <c r="A4" s="60"/>
+      <c r="A4" s="55"/>
       <c r="B4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="59"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="54"/>
     </row>
     <row r="5" ht="15.6">
-      <c r="A5" s="60"/>
+      <c r="A5" s="55"/>
       <c r="B5" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="38"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="58"/>
     </row>
     <row r="6" ht="15.6">
-      <c r="A6" s="60"/>
+      <c r="A6" s="55"/>
       <c r="B6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="38"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="58"/>
     </row>
     <row r="7" ht="15.6">
-      <c r="A7" s="60"/>
+      <c r="A7" s="55"/>
       <c r="B7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="38"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="58"/>
     </row>
     <row r="8" ht="15.6">
-      <c r="A8" s="60"/>
+      <c r="A8" s="55"/>
       <c r="B8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="38"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="58"/>
     </row>
     <row r="9" ht="15.6">
-      <c r="A9" s="60"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="38"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="58"/>
     </row>
     <row r="10" ht="15">
-      <c r="A10" s="60"/>
+      <c r="A10" s="55"/>
       <c r="B10" s="15" t="s">
         <v>14</v>
       </c>
@@ -10839,7 +10796,7 @@
       </c>
     </row>
     <row r="11" ht="15.6">
-      <c r="A11" s="60"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="15" t="s">
         <v>21</v>
       </c>
@@ -10858,7 +10815,7 @@
       <c r="O11" s="18"/>
     </row>
     <row r="12" ht="15.6">
-      <c r="A12" s="60"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="11" t="s">
         <v>29</v>
       </c>
@@ -10877,7 +10834,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" ht="15.6">
-      <c r="A13" s="60"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="12" t="s">
         <v>33</v>
       </c>
@@ -10896,7 +10853,7 @@
       <c r="O13" s="31"/>
     </row>
     <row r="14" ht="15.6">
-      <c r="A14" s="60"/>
+      <c r="A14" s="55"/>
       <c r="B14" s="12" t="s">
         <v>34</v>
       </c>
@@ -10915,7 +10872,7 @@
       <c r="O14" s="31"/>
     </row>
     <row r="15" ht="15.6">
-      <c r="A15" s="60"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="12" t="s">
         <v>35</v>
       </c>
@@ -10934,9 +10891,9 @@
       <c r="O15" s="31"/>
     </row>
     <row r="16" ht="15.6">
-      <c r="A16" s="60"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
@@ -10953,7 +10910,7 @@
       <c r="O16" s="31"/>
     </row>
     <row r="17" ht="15.6">
-      <c r="A17" s="60"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="12" t="s">
         <v>45</v>
       </c>
@@ -10972,7 +10929,7 @@
       <c r="O17" s="31"/>
     </row>
     <row r="18" ht="15.6">
-      <c r="A18" s="60"/>
+      <c r="A18" s="55"/>
       <c r="B18" s="12" t="s">
         <v>46</v>
       </c>
@@ -10991,7 +10948,7 @@
       <c r="O18" s="31"/>
     </row>
     <row r="19" ht="15.6">
-      <c r="A19" s="60"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="12" t="s">
         <v>49</v>
       </c>
@@ -11010,7 +10967,7 @@
       <c r="O19" s="31"/>
     </row>
     <row r="20" ht="15.6">
-      <c r="A20" s="60"/>
+      <c r="A20" s="55"/>
       <c r="B20" s="12" t="s">
         <v>53</v>
       </c>
@@ -11029,9 +10986,9 @@
       <c r="O20" s="31"/>
     </row>
     <row r="21" ht="15.6">
-      <c r="A21" s="60"/>
+      <c r="A21" s="55"/>
       <c r="B21" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
@@ -11048,9 +11005,9 @@
       <c r="O21" s="31"/>
     </row>
     <row r="22" ht="15.6">
-      <c r="A22" s="60"/>
+      <c r="A22" s="55"/>
       <c r="B22" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
@@ -11067,9 +11024,9 @@
       <c r="O22" s="31"/>
     </row>
     <row r="23" ht="15.6">
-      <c r="A23" s="60"/>
+      <c r="A23" s="55"/>
       <c r="B23" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
@@ -11086,9 +11043,9 @@
       <c r="O23" s="31"/>
     </row>
     <row r="24" ht="15.6">
-      <c r="A24" s="60"/>
+      <c r="A24" s="55"/>
       <c r="B24" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
@@ -11105,9 +11062,9 @@
       <c r="O24" s="31"/>
     </row>
     <row r="25" ht="15.6">
-      <c r="A25" s="60"/>
+      <c r="A25" s="55"/>
       <c r="B25" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
@@ -11124,9 +11081,9 @@
       <c r="O25" s="31"/>
     </row>
     <row r="26" ht="15.6">
-      <c r="A26" s="60"/>
+      <c r="A26" s="55"/>
       <c r="B26" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
@@ -11143,9 +11100,9 @@
       <c r="O26" s="31"/>
     </row>
     <row r="27" ht="15.6">
-      <c r="A27" s="60"/>
+      <c r="A27" s="55"/>
       <c r="B27" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
@@ -11162,9 +11119,9 @@
       <c r="O27" s="31"/>
     </row>
     <row r="28" ht="15.6">
-      <c r="A28" s="60"/>
+      <c r="A28" s="55"/>
       <c r="B28" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
@@ -11181,9 +11138,9 @@
       <c r="O28" s="31"/>
     </row>
     <row r="29" ht="15.6">
-      <c r="A29" s="60"/>
+      <c r="A29" s="55"/>
       <c r="B29" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
@@ -11200,9 +11157,9 @@
       <c r="O29" s="31"/>
     </row>
     <row r="30" ht="15.6">
-      <c r="A30" s="60"/>
+      <c r="A30" s="55"/>
       <c r="B30" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
@@ -11219,9 +11176,9 @@
       <c r="O30" s="31"/>
     </row>
     <row r="31" ht="15.6">
-      <c r="A31" s="60"/>
+      <c r="A31" s="55"/>
       <c r="B31" s="12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
@@ -11238,9 +11195,9 @@
       <c r="O31" s="31"/>
     </row>
     <row r="32" ht="15.6">
-      <c r="A32" s="60"/>
+      <c r="A32" s="55"/>
       <c r="B32" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
@@ -11259,7 +11216,7 @@
     <row r="33" ht="15.6">
       <c r="A33" s="26"/>
       <c r="B33" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
@@ -11276,86 +11233,86 @@
       <c r="O33" s="32"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="B34" s="50"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="51"/>
-      <c r="L34" s="51"/>
-      <c r="M34" s="51"/>
-      <c r="N34" s="51"/>
-      <c r="O34" s="52"/>
+      <c r="A34" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="43"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="44"/>
+      <c r="O34" s="45"/>
       <c r="P34" s="22"/>
       <c r="Q34" s="22"/>
       <c r="R34" s="22"/>
       <c r="S34" s="22"/>
     </row>
     <row r="35">
-      <c r="A35" s="48"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="54"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="54"/>
-      <c r="M35" s="54"/>
-      <c r="N35" s="54"/>
-      <c r="O35" s="55"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="47"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="47"/>
+      <c r="N35" s="47"/>
+      <c r="O35" s="48"/>
       <c r="P35" s="22"/>
       <c r="Q35" s="22"/>
       <c r="R35" s="22"/>
       <c r="S35" s="22"/>
     </row>
     <row r="36">
-      <c r="A36" s="48"/>
-      <c r="B36" s="53"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="54"/>
-      <c r="M36" s="54"/>
-      <c r="N36" s="54"/>
-      <c r="O36" s="55"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="47"/>
+      <c r="O36" s="48"/>
       <c r="P36" s="22"/>
       <c r="Q36" s="22"/>
       <c r="R36" s="22"/>
       <c r="S36" s="22"/>
     </row>
     <row r="37" ht="13.8">
-      <c r="A37" s="49"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="57"/>
-      <c r="K37" s="57"/>
-      <c r="L37" s="57"/>
-      <c r="M37" s="57"/>
-      <c r="N37" s="57"/>
-      <c r="O37" s="58"/>
+      <c r="A37" s="42"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="50"/>
+      <c r="O37" s="51"/>
       <c r="P37" s="22"/>
       <c r="Q37" s="22"/>
       <c r="R37" s="22"/>
@@ -11363,6 +11320,17 @@
     </row>
   </sheetData>
   <mergeCells>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:O1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A20:A29"/>
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="A34:A37"/>
@@ -11379,17 +11347,6 @@
     <mergeCell ref="M8:O8"/>
     <mergeCell ref="C9:H9"/>
     <mergeCell ref="I9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:O1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <conditionalFormatting sqref="C15:O33">
     <cfRule type="expression" dxfId="2" priority="3">
@@ -11512,23 +11469,23 @@
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1">
-      <c r="A1" s="45"/>
-      <c r="B1" s="46"/>
-      <c r="C1" s="43" t="s">
-        <v>130</v>
-      </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
+      <c r="A1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
       <c r="P1" s="22"/>
       <c r="Q1" s="22"/>
       <c r="R1" s="22"/>
@@ -11539,162 +11496,162 @@
       <c r="B2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="61">
+      <c r="C2" s="59">
         <v>1</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="62">
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="60">
         <v>2</v>
       </c>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="65">
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="63">
         <v>3</v>
       </c>
-      <c r="N2" s="62"/>
-      <c r="O2" s="64"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="62"/>
       <c r="P2" s="23"/>
     </row>
     <row r="3" ht="15.6">
-      <c r="A3" s="60"/>
+      <c r="A3" s="55"/>
       <c r="B3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="38"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="58"/>
     </row>
     <row r="4" ht="15.6">
-      <c r="A4" s="60"/>
+      <c r="A4" s="55"/>
       <c r="B4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="59"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="54"/>
     </row>
     <row r="5" ht="15.6">
-      <c r="A5" s="60"/>
+      <c r="A5" s="55"/>
       <c r="B5" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="38"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="58"/>
     </row>
     <row r="6" ht="15.6">
-      <c r="A6" s="60"/>
+      <c r="A6" s="55"/>
       <c r="B6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="38"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="58"/>
     </row>
     <row r="7" ht="15.6">
-      <c r="A7" s="60"/>
+      <c r="A7" s="55"/>
       <c r="B7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="38"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="58"/>
     </row>
     <row r="8" ht="15.6">
-      <c r="A8" s="60"/>
+      <c r="A8" s="55"/>
       <c r="B8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="38"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="58"/>
     </row>
     <row r="9" ht="15.6">
-      <c r="A9" s="60"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="38"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="58"/>
     </row>
     <row r="10" ht="15">
-      <c r="A10" s="60"/>
+      <c r="A10" s="55"/>
       <c r="B10" s="15" t="s">
         <v>14</v>
       </c>
@@ -11739,7 +11696,7 @@
       </c>
     </row>
     <row r="11" ht="15.6">
-      <c r="A11" s="60"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="15" t="s">
         <v>21</v>
       </c>
@@ -11758,7 +11715,7 @@
       <c r="O11" s="18"/>
     </row>
     <row r="12" ht="15.6">
-      <c r="A12" s="60"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="11" t="s">
         <v>29</v>
       </c>
@@ -11777,7 +11734,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" ht="15.6">
-      <c r="A13" s="60"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="12" t="s">
         <v>33</v>
       </c>
@@ -11796,7 +11753,7 @@
       <c r="O13" s="31"/>
     </row>
     <row r="14" ht="15.6">
-      <c r="A14" s="60"/>
+      <c r="A14" s="55"/>
       <c r="B14" s="12" t="s">
         <v>34</v>
       </c>
@@ -11815,7 +11772,7 @@
       <c r="O14" s="31"/>
     </row>
     <row r="15" ht="15.6">
-      <c r="A15" s="60"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="12" t="s">
         <v>35</v>
       </c>
@@ -11834,9 +11791,9 @@
       <c r="O15" s="31"/>
     </row>
     <row r="16" ht="15.6">
-      <c r="A16" s="60"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
@@ -11853,7 +11810,7 @@
       <c r="O16" s="31"/>
     </row>
     <row r="17" ht="15.6">
-      <c r="A17" s="60"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="12" t="s">
         <v>45</v>
       </c>
@@ -11872,7 +11829,7 @@
       <c r="O17" s="31"/>
     </row>
     <row r="18" ht="15.6">
-      <c r="A18" s="60"/>
+      <c r="A18" s="55"/>
       <c r="B18" s="12" t="s">
         <v>46</v>
       </c>
@@ -11891,7 +11848,7 @@
       <c r="O18" s="31"/>
     </row>
     <row r="19" ht="15.6">
-      <c r="A19" s="60"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="12" t="s">
         <v>49</v>
       </c>
@@ -11910,7 +11867,7 @@
       <c r="O19" s="31"/>
     </row>
     <row r="20" ht="15.6">
-      <c r="A20" s="60"/>
+      <c r="A20" s="55"/>
       <c r="B20" s="12" t="s">
         <v>53</v>
       </c>
@@ -11929,9 +11886,9 @@
       <c r="O20" s="31"/>
     </row>
     <row r="21" ht="15.6">
-      <c r="A21" s="60"/>
+      <c r="A21" s="55"/>
       <c r="B21" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
@@ -11948,9 +11905,9 @@
       <c r="O21" s="31"/>
     </row>
     <row r="22" ht="15.6">
-      <c r="A22" s="60"/>
+      <c r="A22" s="55"/>
       <c r="B22" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
@@ -11967,9 +11924,9 @@
       <c r="O22" s="31"/>
     </row>
     <row r="23" ht="15.6">
-      <c r="A23" s="60"/>
+      <c r="A23" s="55"/>
       <c r="B23" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
@@ -11986,9 +11943,9 @@
       <c r="O23" s="31"/>
     </row>
     <row r="24" ht="15.6">
-      <c r="A24" s="60"/>
+      <c r="A24" s="55"/>
       <c r="B24" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
@@ -12005,9 +11962,9 @@
       <c r="O24" s="31"/>
     </row>
     <row r="25" ht="15.6">
-      <c r="A25" s="60"/>
+      <c r="A25" s="55"/>
       <c r="B25" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
@@ -12024,9 +11981,9 @@
       <c r="O25" s="31"/>
     </row>
     <row r="26" ht="15.6">
-      <c r="A26" s="60"/>
+      <c r="A26" s="55"/>
       <c r="B26" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
@@ -12043,9 +12000,9 @@
       <c r="O26" s="31"/>
     </row>
     <row r="27" ht="15.6">
-      <c r="A27" s="60"/>
+      <c r="A27" s="55"/>
       <c r="B27" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
@@ -12062,9 +12019,9 @@
       <c r="O27" s="31"/>
     </row>
     <row r="28" ht="15.6">
-      <c r="A28" s="60"/>
+      <c r="A28" s="55"/>
       <c r="B28" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
@@ -12081,9 +12038,9 @@
       <c r="O28" s="31"/>
     </row>
     <row r="29" ht="15.6">
-      <c r="A29" s="60"/>
+      <c r="A29" s="55"/>
       <c r="B29" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
@@ -12100,9 +12057,9 @@
       <c r="O29" s="31"/>
     </row>
     <row r="30" ht="15.6">
-      <c r="A30" s="60"/>
+      <c r="A30" s="55"/>
       <c r="B30" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
@@ -12119,9 +12076,9 @@
       <c r="O30" s="31"/>
     </row>
     <row r="31" ht="15.6">
-      <c r="A31" s="60"/>
+      <c r="A31" s="55"/>
       <c r="B31" s="12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
@@ -12138,9 +12095,9 @@
       <c r="O31" s="31"/>
     </row>
     <row r="32" ht="15.6">
-      <c r="A32" s="60"/>
+      <c r="A32" s="55"/>
       <c r="B32" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
@@ -12159,7 +12116,7 @@
     <row r="33" ht="15.6">
       <c r="A33" s="26"/>
       <c r="B33" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
@@ -12176,86 +12133,86 @@
       <c r="O33" s="32"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="B34" s="50"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="51"/>
-      <c r="L34" s="51"/>
-      <c r="M34" s="51"/>
-      <c r="N34" s="51"/>
-      <c r="O34" s="52"/>
+      <c r="A34" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="43"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="44"/>
+      <c r="O34" s="45"/>
       <c r="P34" s="22"/>
       <c r="Q34" s="22"/>
       <c r="R34" s="22"/>
       <c r="S34" s="22"/>
     </row>
     <row r="35">
-      <c r="A35" s="48"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="54"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="54"/>
-      <c r="M35" s="54"/>
-      <c r="N35" s="54"/>
-      <c r="O35" s="55"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="47"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="47"/>
+      <c r="N35" s="47"/>
+      <c r="O35" s="48"/>
       <c r="P35" s="22"/>
       <c r="Q35" s="22"/>
       <c r="R35" s="22"/>
       <c r="S35" s="22"/>
     </row>
     <row r="36">
-      <c r="A36" s="48"/>
-      <c r="B36" s="53"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="54"/>
-      <c r="M36" s="54"/>
-      <c r="N36" s="54"/>
-      <c r="O36" s="55"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="47"/>
+      <c r="O36" s="48"/>
       <c r="P36" s="22"/>
       <c r="Q36" s="22"/>
       <c r="R36" s="22"/>
       <c r="S36" s="22"/>
     </row>
     <row r="37" ht="13.8">
-      <c r="A37" s="49"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="57"/>
-      <c r="K37" s="57"/>
-      <c r="L37" s="57"/>
-      <c r="M37" s="57"/>
-      <c r="N37" s="57"/>
-      <c r="O37" s="58"/>
+      <c r="A37" s="42"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="50"/>
+      <c r="O37" s="51"/>
       <c r="P37" s="22"/>
       <c r="Q37" s="22"/>
       <c r="R37" s="22"/>
@@ -12263,6 +12220,17 @@
     </row>
   </sheetData>
   <mergeCells>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:O1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A20:A29"/>
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="A34:A37"/>
@@ -12279,17 +12247,6 @@
     <mergeCell ref="M8:O8"/>
     <mergeCell ref="C9:H9"/>
     <mergeCell ref="I9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:O1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <conditionalFormatting sqref="C15:O33">
     <cfRule type="expression" dxfId="2" priority="3">
